--- a/submission/table_S3_diversity_kruskal-wallis.xlsx
+++ b/submission/table_S3_diversity_kruskal-wallis.xlsx
@@ -434,22 +434,22 @@
         </is>
       </c>
       <c r="F2">
-        <v>1.21808775</v>
+        <v>1.263265</v>
       </c>
       <c r="G2">
-        <v>1.189733857142857</v>
+        <v>1.060187</v>
       </c>
       <c r="H2">
-        <v>0.7648168</v>
+        <v>0.88605</v>
       </c>
       <c r="I2">
-        <v>2.392154</v>
+        <v>2.3578725</v>
       </c>
       <c r="J2">
-        <v>1.869675</v>
+        <v>1.600417</v>
       </c>
       <c r="K2">
-        <v>1.781321125</v>
+        <v>1.63879</v>
       </c>
       <c r="L2">
         <v>0.0005147936855578805</v>
@@ -481,22 +481,22 @@
         </is>
       </c>
       <c r="F3">
-        <v>2.23573</v>
+        <v>2.0133175</v>
       </c>
       <c r="G3">
-        <v>2.467243625</v>
+        <v>2.230369</v>
       </c>
       <c r="H3">
-        <v>1.459280285714286</v>
+        <v>1.350626</v>
       </c>
       <c r="I3">
-        <v>3.365354375</v>
+        <v>3.427412</v>
       </c>
       <c r="J3">
-        <v>2.790557166666666</v>
+        <v>2.751541</v>
       </c>
       <c r="K3">
-        <v>3.127669166666667</v>
+        <v>3.063784</v>
       </c>
       <c r="L3">
         <v>0.0005147936855578805</v>
@@ -528,22 +528,22 @@
         </is>
       </c>
       <c r="F4">
-        <v>2.97513275</v>
+        <v>2.985855</v>
       </c>
       <c r="G4">
-        <v>2.630656777777778</v>
+        <v>2.648099</v>
       </c>
       <c r="H4">
-        <v>2.430771833333333</v>
+        <v>2.390782</v>
       </c>
       <c r="I4">
-        <v>3.60332975</v>
+        <v>3.5449285</v>
       </c>
       <c r="J4">
-        <v>2.544362428571429</v>
+        <v>2.67196</v>
       </c>
       <c r="K4">
-        <v>2.659623</v>
+        <v>2.546703</v>
       </c>
       <c r="L4">
         <v>0.001801025361141584</v>
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="F5">
-        <v>1.772862333333333</v>
+        <v>1.674286</v>
       </c>
       <c r="G5">
-        <v>1.384798</v>
+        <v>1.211476</v>
       </c>
       <c r="H5">
-        <v>1.3970064</v>
+        <v>1.527338</v>
       </c>
       <c r="I5">
-        <v>2.90712825</v>
+        <v>2.937397</v>
       </c>
       <c r="J5">
-        <v>2.505468</v>
+        <v>2.352139</v>
       </c>
       <c r="K5">
-        <v>2.085722</v>
+        <v>1.964147</v>
       </c>
       <c r="L5">
         <v>0.001804794640275578</v>
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="F6">
-        <v>0.4782971428571429</v>
+        <v>0.393113</v>
       </c>
       <c r="G6">
-        <v>0.665336</v>
+        <v>0.6393135000000001</v>
       </c>
       <c r="H6">
-        <v>0.8015755</v>
+        <v>0.8242039999999999</v>
       </c>
       <c r="I6">
-        <v>1.4890422</v>
+        <v>1.47545</v>
       </c>
       <c r="J6">
-        <v>1.3414196</v>
+        <v>1.287899</v>
       </c>
       <c r="K6">
-        <v>1.064244333333333</v>
+        <v>1.1060325</v>
       </c>
       <c r="L6">
         <v>0.004061788406117559</v>
@@ -669,22 +669,22 @@
         </is>
       </c>
       <c r="F7">
-        <v>2.745229625</v>
+        <v>2.7673705</v>
       </c>
       <c r="G7">
-        <v>2.842691571428571</v>
+        <v>2.577549</v>
       </c>
       <c r="H7">
-        <v>2.19867</v>
+        <v>2.239505</v>
       </c>
       <c r="I7">
-        <v>3.605153714285714</v>
+        <v>3.541092</v>
       </c>
       <c r="J7">
-        <v>2.80183725</v>
+        <v>2.5939365</v>
       </c>
       <c r="K7">
-        <v>2.667069142857143</v>
+        <v>2.713827</v>
       </c>
       <c r="L7">
         <v>0.005826494389048543</v>
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="F8">
-        <v>2.088389</v>
+        <v>2.0671315</v>
       </c>
       <c r="G8">
-        <v>2.122821428571429</v>
+        <v>1.849646</v>
       </c>
       <c r="H8">
-        <v>1.465428333333333</v>
+        <v>1.340242</v>
       </c>
       <c r="I8">
-        <v>3.242029428571429</v>
+        <v>3.256496</v>
       </c>
       <c r="J8">
-        <v>2.3206204</v>
+        <v>2.109229</v>
       </c>
       <c r="K8">
-        <v>2.457367428571429</v>
+        <v>2.411948</v>
       </c>
       <c r="L8">
         <v>0.006052054252395107</v>
@@ -763,22 +763,22 @@
         </is>
       </c>
       <c r="F9">
-        <v>2.684079833333334</v>
+        <v>2.709545</v>
       </c>
       <c r="G9">
-        <v>3.086654</v>
+        <v>3.3462055</v>
       </c>
       <c r="H9">
-        <v>2.555007</v>
+        <v>2.676745</v>
       </c>
       <c r="I9">
-        <v>3.581462</v>
+        <v>3.6113935</v>
       </c>
       <c r="J9">
-        <v>2.60670775</v>
+        <v>2.5004215</v>
       </c>
       <c r="K9">
-        <v>2.772070857142857</v>
+        <v>2.942861</v>
       </c>
       <c r="L9">
         <v>0.05157908064127346</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="F10">
-        <v>1.995162333333333</v>
+        <v>2.010388</v>
       </c>
       <c r="G10">
-        <v>1.613737666666667</v>
+        <v>1.5602365</v>
       </c>
       <c r="H10">
         <v>1.434306</v>
@@ -825,7 +825,7 @@
         <v>1.490969</v>
       </c>
       <c r="K10">
-        <v>1.8977698</v>
+        <v>1.853689</v>
       </c>
       <c r="L10">
         <v>0.0658068798481817</v>
@@ -857,22 +857,22 @@
         </is>
       </c>
       <c r="F11">
-        <v>2.867673</v>
+        <v>2.9433485</v>
       </c>
       <c r="G11">
-        <v>2.38891825</v>
+        <v>2.3287495</v>
       </c>
       <c r="H11">
-        <v>2.11342325</v>
+        <v>2.0863455</v>
       </c>
       <c r="I11">
         <v>3.8064265</v>
       </c>
       <c r="J11">
-        <v>2.925357333333333</v>
+        <v>2.869485</v>
       </c>
       <c r="K11">
-        <v>3.08485125</v>
+        <v>3.0589595</v>
       </c>
       <c r="L11">
         <v>0.0658068798481817</v>
@@ -904,22 +904,22 @@
         </is>
       </c>
       <c r="F12">
-        <v>2.6804256</v>
+        <v>2.649149</v>
       </c>
       <c r="G12">
-        <v>2.520079777777778</v>
+        <v>2.68211</v>
       </c>
       <c r="H12">
-        <v>2.2395942</v>
+        <v>2.01088</v>
       </c>
       <c r="I12">
-        <v>3.260878428571429</v>
+        <v>3.301791</v>
       </c>
       <c r="J12">
-        <v>2.4895215</v>
+        <v>2.5972915</v>
       </c>
       <c r="K12">
-        <v>2.691746857142857</v>
+        <v>2.776341</v>
       </c>
       <c r="L12">
         <v>0.101456301755732</v>
@@ -951,22 +951,22 @@
         </is>
       </c>
       <c r="F13">
-        <v>89.125</v>
+        <v>86.5</v>
       </c>
       <c r="G13">
-        <v>107.125</v>
+        <v>104</v>
       </c>
       <c r="H13">
-        <v>58.14285714285715</v>
+        <v>59</v>
       </c>
       <c r="I13">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="J13">
-        <v>103.6666666666667</v>
+        <v>89.5</v>
       </c>
       <c r="K13">
-        <v>116.8333333333333</v>
+        <v>110.5</v>
       </c>
       <c r="L13">
         <v>0.0003185307178601498</v>
@@ -998,22 +998,22 @@
         </is>
       </c>
       <c r="F14">
-        <v>117</v>
+        <v>115.5</v>
       </c>
       <c r="G14">
-        <v>125.7777777777778</v>
+        <v>130</v>
       </c>
       <c r="H14">
-        <v>90.5</v>
+        <v>91.5</v>
       </c>
       <c r="I14">
-        <v>206.875</v>
+        <v>191.5</v>
       </c>
       <c r="J14">
-        <v>107.2857142857143</v>
+        <v>97</v>
       </c>
       <c r="K14">
-        <v>113.1428571428571</v>
+        <v>126</v>
       </c>
       <c r="L14">
         <v>0.0003185307178601498</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="F15">
-        <v>105.375</v>
+        <v>104.5</v>
       </c>
       <c r="G15">
-        <v>123.1428571428571</v>
+        <v>127</v>
       </c>
       <c r="H15">
-        <v>78.71428571428571</v>
+        <v>80</v>
       </c>
       <c r="I15">
-        <v>199.1428571428571</v>
+        <v>197</v>
       </c>
       <c r="J15">
-        <v>106</v>
+        <v>93.5</v>
       </c>
       <c r="K15">
-        <v>103.1428571428571</v>
+        <v>110</v>
       </c>
       <c r="L15">
         <v>0.0006307964711013683</v>
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="F16">
-        <v>23.125</v>
+        <v>23</v>
       </c>
       <c r="G16">
-        <v>23.57142857142857</v>
+        <v>26</v>
       </c>
       <c r="H16">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="I16">
-        <v>86.875</v>
+        <v>80.5</v>
       </c>
       <c r="J16">
-        <v>55.66666666666666</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>38.5</v>
+        <v>34.5</v>
       </c>
       <c r="L16">
         <v>0.001869191445617286</v>
@@ -1139,22 +1139,22 @@
         </is>
       </c>
       <c r="F17">
-        <v>63.33333333333334</v>
+        <v>61</v>
       </c>
       <c r="G17">
-        <v>58.5</v>
+        <v>55.5</v>
       </c>
       <c r="H17">
-        <v>41.2</v>
+        <v>40</v>
       </c>
       <c r="I17">
-        <v>149.75</v>
+        <v>146.5</v>
       </c>
       <c r="J17">
-        <v>79.2</v>
+        <v>61</v>
       </c>
       <c r="K17">
-        <v>74.14285714285714</v>
+        <v>73</v>
       </c>
       <c r="L17">
         <v>0.001869191445617286</v>
@@ -1186,22 +1186,22 @@
         </is>
       </c>
       <c r="F18">
-        <v>109.4</v>
+        <v>111</v>
       </c>
       <c r="G18">
-        <v>114.1111111111111</v>
+        <v>126</v>
       </c>
       <c r="H18">
-        <v>83.8</v>
+        <v>87</v>
       </c>
       <c r="I18">
-        <v>181.2857142857143</v>
+        <v>176</v>
       </c>
       <c r="J18">
-        <v>72.75</v>
+        <v>86</v>
       </c>
       <c r="K18">
-        <v>102.8571428571429</v>
+        <v>119</v>
       </c>
       <c r="L18">
         <v>0.001869191445617286</v>
@@ -1233,22 +1233,22 @@
         </is>
       </c>
       <c r="F19">
-        <v>79.625</v>
+        <v>83</v>
       </c>
       <c r="G19">
-        <v>89.57142857142857</v>
+        <v>86</v>
       </c>
       <c r="H19">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I19">
-        <v>176.5714285714286</v>
+        <v>155</v>
       </c>
       <c r="J19">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K19">
-        <v>88.42857142857143</v>
+        <v>96</v>
       </c>
       <c r="L19">
         <v>0.002520011786949093</v>
@@ -1280,22 +1280,22 @@
         </is>
       </c>
       <c r="F20">
-        <v>18.57142857142857</v>
+        <v>15</v>
       </c>
       <c r="G20">
-        <v>18.25</v>
+        <v>18.5</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I20">
-        <v>34.6</v>
+        <v>34</v>
       </c>
       <c r="J20">
-        <v>44.2</v>
+        <v>28</v>
       </c>
       <c r="K20">
-        <v>21.66666666666667</v>
+        <v>21</v>
       </c>
       <c r="L20">
         <v>0.002617831667544141</v>
@@ -1327,22 +1327,22 @@
         </is>
       </c>
       <c r="F21">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G21">
-        <v>131</v>
+        <v>131.5</v>
       </c>
       <c r="H21">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="I21">
-        <v>240.3333333333333</v>
+        <v>247</v>
       </c>
       <c r="J21">
-        <v>120.125</v>
+        <v>122.5</v>
       </c>
       <c r="K21">
-        <v>154.4285714285714</v>
+        <v>142</v>
       </c>
       <c r="L21">
         <v>0.03001221483208876</v>
@@ -1374,22 +1374,22 @@
         </is>
       </c>
       <c r="F22">
-        <v>111.75</v>
+        <v>111.5</v>
       </c>
       <c r="G22">
-        <v>108.75</v>
+        <v>109</v>
       </c>
       <c r="H22">
-        <v>86.25</v>
+        <v>85</v>
       </c>
       <c r="I22">
         <v>231.5</v>
       </c>
       <c r="J22">
-        <v>119.3333333333333</v>
+        <v>105</v>
       </c>
       <c r="K22">
-        <v>120.5</v>
+        <v>124</v>
       </c>
       <c r="L22">
         <v>0.05308683241930762</v>
@@ -1421,10 +1421,10 @@
         </is>
       </c>
       <c r="F23">
-        <v>52.33333333333334</v>
+        <v>42</v>
       </c>
       <c r="G23">
-        <v>44.66666666666666</v>
+        <v>45.5</v>
       </c>
       <c r="H23">
         <v>28</v>
@@ -1436,7 +1436,7 @@
         <v>19</v>
       </c>
       <c r="K23">
-        <v>52.2</v>
+        <v>51</v>
       </c>
       <c r="L23">
         <v>0.08282883753493013</v>
